--- a/Bảng phân công.xlsx
+++ b/Bảng phân công.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\DoAn_CNPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366800A7-FFF0-4BA8-A793-ADC73044BC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3536CCF-8A20-4721-A1CB-AF3AB54B870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Xây dựng giao diện đăng ký, đăng nhập, trang chủ</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về quản lý kho hàng</t>
+  </si>
+  <si>
+    <t>Hoàn Thành</t>
   </si>
 </sst>
 </file>
@@ -346,14 +352,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,7 +491,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,7 +1252,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="430502" cy="264560"/>
+    <xdr:ext cx="359009" cy="264560"/>
     <xdr:sp macro="" textlink="$L$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
@@ -1260,8 +1266,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8486775" y="228600"/>
-          <a:ext cx="430502" cy="264560"/>
+          <a:off x="8515350" y="228600"/>
+          <a:ext cx="359009" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1298,7 +1304,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0%</a:t>
+            <a:t>44%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -1311,10 +1317,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1617,7 +1619,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,11 +1638,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1651,9 +1653,9 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="9"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
@@ -1665,10 +1667,10 @@
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1683,7 +1685,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4">
@@ -1705,16 +1707,16 @@
       </c>
       <c r="L5" s="7">
         <f>COUNTIFS(J:J,"Hoàn Thành")/(COUNTA(J:J)-2)</f>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
@@ -1725,7 +1727,7 @@
         <v>45021</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1744,7 +1746,7 @@
         <v>45023</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1763,7 +1765,7 @@
         <v>45023</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1782,11 +1784,11 @@
         <v>45020</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4">
@@ -1808,7 +1810,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="D11" s="4">
         <v>7</v>
       </c>
@@ -1869,12 +1871,20 @@
       <c r="D14" s="4">
         <v>10</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="11">
+        <v>45028</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
@@ -1953,6 +1963,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E4:F4"/>
@@ -1969,10 +1983,6 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:J20">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -2018,6 +2028,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006012939AEB6C7441B93DD0678AEC47A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9cd836056523acb4db17a702a1b7bc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f954ad4b6ebd46506388e2a5c869540">
     <xsd:element name="properties">
@@ -2131,12 +2147,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B520BE18-ED60-4FF6-B0FA-E5214074705A}">
   <ds:schemaRefs>
@@ -2146,6 +2156,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5A57AA-6876-431A-A529-700D213A014C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2159,19 +2184,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>